--- a/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8ABF36-A947-457A-AD10-F66933D0BBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97883AE4-5928-45DD-90CF-51D87E4771C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D115BCDB-0329-4B14-B1AD-80425487B918}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D2319C-2915-4EA0-8EF4-BB53AE09AB9F}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_CHN/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97883AE4-5928-45DD-90CF-51D87E4771C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B66D08-06AA-4CB9-A882-C5F589A33150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D2319C-2915-4EA0-8EF4-BB53AE09AB9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E64FD41-5E97-4777-8370-FB9B6D3A203C}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1036,7 +1036,7 @@
         <v>22</v>
       </c>
       <c r="AL11">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="AM11" t="s">
         <v>45</v>
